--- a/tmp_client/doc/TMP_EIT_suites/analysis_01_simulation.xlsx
+++ b/tmp_client/doc/TMP_EIT_suites/analysis_01_simulation.xlsx
@@ -962,15 +962,6 @@
     <t>6</t>
   </si>
   <si>
-    <t>analysis_01_simulation</t>
-  </si>
-  <si>
-    <t>repository =http://lshlabd0011/radiant/trunk/general/aldec</t>
-  </si>
-  <si>
-    <t>suite_path = analysis_01_simulation</t>
-  </si>
-  <si>
     <t xml:space="preserve">cmd = python DEV/bin/run_diamondng.py </t>
   </si>
   <si>
@@ -1376,6 +1367,18 @@
   </si>
   <si>
     <t>radiant=ng1_0</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>analysis_01_simulation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>repository =http://lshlabd0011/radiant/trunk/general/analysis_01_simulation</t>
+    <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>suite_path = simulator_aldec</t>
     <phoneticPr fontId="18" type="noConversion"/>
   </si>
 </sst>
@@ -5072,7 +5075,7 @@
 </file>
 
 <file path=xl/revisions/revisionHeaders.xml><?xml version="1.0" encoding="utf-8"?>
-<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{E0AEEF03-F6CD-4ECC-850B-51A4592AEE8A}" diskRevisions="1" revisionId="655" version="9">
+<headers xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac" guid="{9A30FAC7-927A-4F3C-9A3C-57A53D8851E3}" diskRevisions="1" revisionId="660" version="11">
   <header guid="{44EB38A2-BBD0-4FEB-BE52-D705D470D324}" dateTime="2017-10-18T14:19:16" maxSheetId="5" userName="Jason Wang" r:id="rId1">
     <sheetIdMap count="4">
       <sheetId val="1"/>
@@ -5145,11 +5148,104 @@
       <sheetId val="4"/>
     </sheetIdMap>
   </header>
+  <header guid="{91FCCFB7-37AD-4CE7-9DAB-AAF8F0D736F8}" dateTime="2017-10-20T11:27:00" maxSheetId="5" userName="Jason Wang" r:id="rId10" minRId="656" maxRId="657">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
+  <header guid="{9A30FAC7-927A-4F3C-9A3C-57A53D8851E3}" dateTime="2017-10-20T11:28:23" maxSheetId="5" userName="Jason Wang" r:id="rId11" minRId="658" maxRId="660">
+    <sheetIdMap count="4">
+      <sheetId val="1"/>
+      <sheetId val="2"/>
+      <sheetId val="3"/>
+      <sheetId val="4"/>
+    </sheetIdMap>
+  </header>
 </headers>
 </file>
 
 <file path=xl/revisions/revisionLog1.xml><?xml version="1.0" encoding="utf-8"?>
 <revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac"/>
+</file>
+
+<file path=xl/revisions/revisionLog10.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="656" sId="1">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <t>repository =http://lshlabd0011/radiant/trunk/general/aldec</t>
+      </is>
+    </oc>
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>repository =http://lshlabd0011/radiant/trunk/general/analysis_01_simulation</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="657" sId="1">
+    <oc r="B5" t="inlineStr">
+      <is>
+        <t>suite_path = analysis_01_simulation</t>
+      </is>
+    </oc>
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>suite_path = simulator_aldec</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
+</file>
+
+<file path=xl/revisions/revisionLog11.xml><?xml version="1.0" encoding="utf-8"?>
+<revisions xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <rcc rId="658" sId="1">
+    <oc r="B3" t="inlineStr">
+      <is>
+        <t>analysis_01_simulation</t>
+      </is>
+    </oc>
+    <nc r="B3" t="inlineStr">
+      <is>
+        <t>analysis_01_simulation</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="659" sId="1">
+    <oc r="B4" t="inlineStr">
+      <is>
+        <t>repository =http://lshlabd0011/radiant/trunk/general/analysis_01_simulation</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B4" t="inlineStr">
+      <is>
+        <t>repository =http://lshlabd0011/radiant/trunk/general/analysis_01_simulation</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+  <rcc rId="660" sId="1">
+    <oc r="B5" t="inlineStr">
+      <is>
+        <t>suite_path = simulator_aldec</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </oc>
+    <nc r="B5" t="inlineStr">
+      <is>
+        <t>suite_path = simulator_aldec</t>
+        <phoneticPr fontId="0" type="noConversion"/>
+      </is>
+    </nc>
+  </rcc>
+</revisions>
 </file>
 
 <file path=xl/revisions/revisionLog2.xml><?xml version="1.0" encoding="utf-8"?>
@@ -12109,7 +12205,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -12128,7 +12226,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="18" t="s">
-        <v>253</v>
+        <v>250</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.15">
@@ -12136,7 +12234,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="18" t="s">
-        <v>242</v>
+        <v>376</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.15">
@@ -12144,12 +12242,12 @@
         <v>3</v>
       </c>
       <c r="B4" s="18" t="s">
-        <v>243</v>
+        <v>377</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.15">
       <c r="B5" s="18" t="s">
-        <v>244</v>
+        <v>378</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.15">
@@ -12162,7 +12260,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>245</v>
+        <v>242</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.15">
@@ -12170,7 +12268,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>378</v>
+        <v>375</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.15">
@@ -12188,29 +12286,29 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="B14" s="18" t="s">
+        <v>243</v>
+      </c>
+      <c r="C14" s="18" t="s">
         <v>246</v>
-      </c>
-      <c r="C14" s="18" t="s">
-        <v>249</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
-        <v>250</v>
+        <v>247</v>
       </c>
       <c r="B15" s="18" t="s">
         <v>5</v>
       </c>
       <c r="C15" s="18" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
     </row>
   </sheetData>
@@ -12243,7 +12341,7 @@
   <dimension ref="A1:AB63"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <pane xSplit="1" ySplit="2" topLeftCell="B24" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
       <selection activeCell="A2" sqref="A2"/>
       <selection pane="topRight" activeCell="A2" sqref="A2"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
@@ -12399,72 +12497,72 @@
     </row>
     <row r="3" spans="1:28" ht="14.25" thickTop="1" x14ac:dyDescent="0.15">
       <c r="A3" s="18" t="s">
-        <v>319</v>
+        <v>316</v>
       </c>
       <c r="D3" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E3" s="18" t="s">
-        <v>255</v>
+        <v>252</v>
       </c>
       <c r="Q3" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="4" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A4" s="18" t="s">
-        <v>320</v>
+        <v>317</v>
       </c>
       <c r="D4" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E4" s="18" t="s">
-        <v>256</v>
+        <v>253</v>
       </c>
       <c r="Q4" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="5" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A5" s="18" t="s">
-        <v>321</v>
+        <v>318</v>
       </c>
       <c r="D5" s="18" t="s">
+        <v>251</v>
+      </c>
+      <c r="E5" s="18" t="s">
         <v>254</v>
       </c>
-      <c r="E5" s="18" t="s">
-        <v>257</v>
-      </c>
       <c r="Q5" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="6" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A6" s="18" t="s">
-        <v>322</v>
+        <v>319</v>
       </c>
       <c r="D6" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E6" s="18" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="Q6" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="7" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A7" s="18" t="s">
-        <v>323</v>
+        <v>320</v>
       </c>
       <c r="D7" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E7" s="18" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
       <c r="Q7" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="8" spans="1:28" x14ac:dyDescent="0.15">
@@ -12472,783 +12570,783 @@
         <v>241</v>
       </c>
       <c r="D8" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E8" s="18" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="Q8" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="9" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A9" s="18" t="s">
-        <v>324</v>
+        <v>321</v>
       </c>
       <c r="D9" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E9" s="18" t="s">
-        <v>261</v>
+        <v>258</v>
       </c>
       <c r="Q9" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="10" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A10" s="18" t="s">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="D10" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E10" s="18" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="Q10" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="11" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A11" s="18" t="s">
-        <v>252</v>
+        <v>249</v>
       </c>
       <c r="D11" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E11" s="18" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="Q11" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="12" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A12" s="18" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
       <c r="D12" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E12" s="18" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="Q12" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="13" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A13" s="18" t="s">
-        <v>327</v>
+        <v>324</v>
       </c>
       <c r="D13" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E13" s="18" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="Q13" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="14" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A14" s="18" t="s">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="D14" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E14" s="18" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="Q14" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="15" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A15" s="18" t="s">
-        <v>329</v>
+        <v>326</v>
       </c>
       <c r="D15" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E15" s="18" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="Q15" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="16" spans="1:28" x14ac:dyDescent="0.15">
       <c r="A16" s="18" t="s">
-        <v>330</v>
+        <v>327</v>
       </c>
       <c r="D16" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E16" s="18" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="Q16" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A17" s="18" t="s">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="D17" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E17" s="18" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="Q17" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A18" s="18" t="s">
-        <v>332</v>
+        <v>329</v>
       </c>
       <c r="D18" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E18" s="18" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="Q18" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A19" s="18" t="s">
-        <v>333</v>
+        <v>330</v>
       </c>
       <c r="D19" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E19" s="18" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="Q19" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A20" s="18" t="s">
-        <v>334</v>
+        <v>331</v>
       </c>
       <c r="D20" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E20" s="18" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="Q20" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A21" s="18" t="s">
-        <v>335</v>
+        <v>332</v>
       </c>
       <c r="D21" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E21" s="18" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
       <c r="Q21" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A22" s="18" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="D22" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E22" s="18" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
       <c r="Q22" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A23" s="18" t="s">
-        <v>337</v>
+        <v>334</v>
       </c>
       <c r="D23" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E23" s="18" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
       <c r="Q23" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A24" s="18" t="s">
-        <v>338</v>
+        <v>335</v>
       </c>
       <c r="D24" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E24" s="18" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
       <c r="Q24" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A25" s="18" t="s">
-        <v>339</v>
+        <v>336</v>
       </c>
       <c r="D25" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E25" s="18" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="Q25" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A26" s="18" t="s">
-        <v>340</v>
+        <v>337</v>
       </c>
       <c r="D26" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E26" s="18" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="Q26" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A27" s="18" t="s">
-        <v>341</v>
+        <v>338</v>
       </c>
       <c r="D27" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E27" s="18" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
       <c r="Q27" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A28" s="18" t="s">
-        <v>342</v>
+        <v>339</v>
       </c>
       <c r="D28" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E28" s="18" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
       <c r="Q28" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="29" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A29" s="18" t="s">
-        <v>343</v>
+        <v>340</v>
       </c>
       <c r="D29" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E29" s="18" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
       <c r="Q29" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="30" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A30" s="18" t="s">
-        <v>344</v>
+        <v>341</v>
       </c>
       <c r="D30" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E30" s="18" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
       <c r="Q30" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="31" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A31" s="18" t="s">
-        <v>345</v>
+        <v>342</v>
       </c>
       <c r="D31" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E31" s="18" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="Q31" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="32" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A32" s="18" t="s">
-        <v>346</v>
+        <v>343</v>
       </c>
       <c r="D32" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E32" s="18" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="Q32" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="33" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A33" s="18" t="s">
-        <v>347</v>
+        <v>344</v>
       </c>
       <c r="D33" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E33" s="18" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="Q33" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="34" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A34" s="18" t="s">
-        <v>348</v>
+        <v>345</v>
       </c>
       <c r="D34" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E34" s="18" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="Q34" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="35" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A35" s="18" t="s">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="D35" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E35" s="18" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="Q35" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="36" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A36" s="18" t="s">
-        <v>350</v>
+        <v>347</v>
       </c>
       <c r="D36" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E36" s="18" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="Q36" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="37" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A37" s="18" t="s">
-        <v>351</v>
+        <v>348</v>
       </c>
       <c r="D37" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E37" s="18" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="Q37" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="38" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A38" s="18" t="s">
-        <v>352</v>
+        <v>349</v>
       </c>
       <c r="D38" s="18" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="E38" s="18" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="Q38" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="39" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A39" s="18" t="s">
-        <v>353</v>
+        <v>350</v>
       </c>
       <c r="D39" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E39" s="18" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="Q39" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="40" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A40" s="18" t="s">
-        <v>354</v>
+        <v>351</v>
       </c>
       <c r="D40" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E40" s="18" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="Q40" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="41" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A41" s="18" t="s">
-        <v>355</v>
+        <v>352</v>
       </c>
       <c r="D41" s="18" t="s">
+        <v>288</v>
+      </c>
+      <c r="E41" s="18" t="s">
         <v>291</v>
       </c>
-      <c r="E41" s="18" t="s">
-        <v>294</v>
-      </c>
       <c r="Q41" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="42" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A42" s="18" t="s">
-        <v>356</v>
+        <v>353</v>
       </c>
       <c r="D42" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E42" s="18" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
       <c r="Q42" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="43" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A43" s="18" t="s">
-        <v>357</v>
+        <v>354</v>
       </c>
       <c r="D43" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E43" s="18" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
       <c r="Q43" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="44" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A44" s="18" t="s">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="D44" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E44" s="18" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
       <c r="Q44" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="45" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A45" s="18" t="s">
-        <v>359</v>
+        <v>356</v>
       </c>
       <c r="D45" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E45" s="18" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
       <c r="Q45" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="46" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A46" s="18" t="s">
-        <v>360</v>
+        <v>357</v>
       </c>
       <c r="D46" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E46" s="18" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
       <c r="Q46" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="47" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A47" s="18" t="s">
-        <v>361</v>
+        <v>358</v>
       </c>
       <c r="D47" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E47" s="18" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="Q47" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="48" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A48" s="18" t="s">
-        <v>362</v>
+        <v>359</v>
       </c>
       <c r="D48" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E48" s="18" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
       <c r="Q48" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="49" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A49" s="18" t="s">
-        <v>363</v>
+        <v>360</v>
       </c>
       <c r="D49" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E49" s="18" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="Q49" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="50" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A50" s="18" t="s">
-        <v>364</v>
+        <v>361</v>
       </c>
       <c r="D50" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E50" s="18" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="Q50" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="51" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A51" s="18" t="s">
-        <v>365</v>
+        <v>362</v>
       </c>
       <c r="D51" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E51" s="18" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
       <c r="Q51" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="52" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A52" s="18" t="s">
-        <v>366</v>
+        <v>363</v>
       </c>
       <c r="D52" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E52" s="18" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="Q52" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="53" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A53" s="18" t="s">
-        <v>367</v>
+        <v>364</v>
       </c>
       <c r="D53" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E53" s="18" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
       <c r="Q53" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="54" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A54" s="18" t="s">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="D54" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E54" s="18" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
       <c r="Q54" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="55" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A55" s="18" t="s">
-        <v>369</v>
+        <v>366</v>
       </c>
       <c r="D55" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E55" s="18" t="s">
-        <v>308</v>
+        <v>305</v>
       </c>
       <c r="Q55" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="56" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A56" s="18" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D56" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E56" s="18" t="s">
-        <v>309</v>
+        <v>306</v>
       </c>
       <c r="Q56" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="57" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A57" s="18" t="s">
-        <v>371</v>
+        <v>368</v>
       </c>
       <c r="D57" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E57" s="18" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="Q57" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="58" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A58" s="18" t="s">
-        <v>372</v>
+        <v>369</v>
       </c>
       <c r="D58" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E58" s="18" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
       <c r="Q58" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="59" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A59" s="18" t="s">
-        <v>373</v>
+        <v>370</v>
       </c>
       <c r="D59" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E59" s="18" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
       <c r="Q59" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="60" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A60" s="18" t="s">
-        <v>374</v>
+        <v>371</v>
       </c>
       <c r="D60" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E60" s="18" t="s">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="Q60" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="61" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A61" s="18" t="s">
-        <v>375</v>
+        <v>372</v>
       </c>
       <c r="D61" s="18" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="E61" s="18" t="s">
-        <v>314</v>
+        <v>311</v>
       </c>
       <c r="Q61" s="18" t="s">
-        <v>318</v>
+        <v>315</v>
       </c>
     </row>
     <row r="62" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A62" s="18" t="s">
-        <v>376</v>
+        <v>373</v>
       </c>
       <c r="D62" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E62" s="18" t="s">
+        <v>313</v>
+      </c>
+      <c r="Q62" s="18" t="s">
         <v>315</v>
-      </c>
-      <c r="E62" s="18" t="s">
-        <v>316</v>
-      </c>
-      <c r="Q62" s="18" t="s">
-        <v>318</v>
       </c>
     </row>
     <row r="63" spans="1:17" x14ac:dyDescent="0.15">
       <c r="A63" s="18" t="s">
-        <v>377</v>
+        <v>374</v>
       </c>
       <c r="D63" s="18" t="s">
+        <v>312</v>
+      </c>
+      <c r="E63" s="18" t="s">
+        <v>314</v>
+      </c>
+      <c r="Q63" s="18" t="s">
         <v>315</v>
-      </c>
-      <c r="E63" s="18" t="s">
-        <v>317</v>
-      </c>
-      <c r="Q63" s="18" t="s">
-        <v>318</v>
       </c>
     </row>
   </sheetData>
